--- a/biology/Histoire de la zoologie et de la botanique/Colin_Fraser_Symington/Colin_Fraser_Symington.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Colin_Fraser_Symington/Colin_Fraser_Symington.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colin Fraser Symington, né en 1905 à Édimbourg, en Écosse, et mort en 1943 au Nigeria, est un botaniste anglais.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études à Édimbourg, où il obtient son B.Sci. diplôme en foresterie, puis suit un cours de troisième cycle à l'Université d'Oxford. En 1927, il est nommé au service forestier malais. Quelques années avant la Seconde Guerre mondiale, il est promu botaniste forestier à Kepong (Kuala Lumpur), au Selangor. Il voyage aux Philippines. Après la capitulation de Singapour, il s'enfuit en Australie et après un certain temps, il est affecté par le Colonial Office to the Forestry Dept in Nigeria[1].
-Le nom de l'espèce Eugenia symingtoniana Henderson lui rend hommage[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études à Édimbourg, où il obtient son B.Sci. diplôme en foresterie, puis suit un cours de troisième cycle à l'Université d'Oxford. En 1927, il est nommé au service forestier malais. Quelques années avant la Seconde Guerre mondiale, il est promu botaniste forestier à Kepong (Kuala Lumpur), au Selangor. Il voyage aux Philippines. Après la capitulation de Singapour, il s'enfuit en Australie et après un certain temps, il est affecté par le Colonial Office to the Forestry Dept in Nigeria.
+Le nom de l'espèce Eugenia symingtoniana Henderson lui rend hommage.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
